--- a/Resources/2017_BLS_States.xlsx
+++ b/Resources/2017_BLS_States.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8139ed7acd5c9629/Desktop/SMU/Group2_Capstone/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFED79D1-CD1D-4A24-AC79-C8779C364A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{BFED79D1-CD1D-4A24-AC79-C8779C364A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAB0AE06-E36D-4E2F-81CA-E7E16B91233E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{184BE615-F16C-4FF3-8565-E894BF27ECEA}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Women</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -219,7 +216,10 @@
     <t>Wyoming</t>
   </si>
   <si>
-    <t>Men</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14204B6-22AB-46B4-BFE9-7E68B1D00925}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3">
         <v>50291</v>
@@ -640,10 +640,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3">
         <v>712</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C4" s="3">
         <v>117</v>
@@ -674,10 +674,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3">
         <v>970</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C6" s="3">
         <v>496</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C7" s="3">
         <v>5620</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3">
         <v>854</v>
@@ -742,10 +742,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C9" s="3">
         <v>577</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C10" s="3">
         <v>160</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3">
         <v>158</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3">
         <v>3312</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3">
         <v>1736</v>
@@ -827,10 +827,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
         <v>234</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3">
         <v>230</v>
@@ -861,10 +861,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3">
         <v>1965</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3">
         <v>1075</v>
@@ -895,10 +895,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3">
         <v>522</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3">
         <v>459</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3">
         <v>676</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3">
         <v>673</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3">
         <v>201</v>
@@ -980,10 +980,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3">
         <v>1041</v>
@@ -997,10 +997,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3">
         <v>1157</v>
@@ -1014,10 +1014,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3">
         <v>1455</v>
@@ -1031,10 +1031,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3">
         <v>937</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3">
         <v>454</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3">
         <v>1006</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3">
         <v>135</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3">
         <v>311</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3">
         <v>451</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3">
         <v>225</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3">
         <v>1486</v>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3">
         <v>268</v>
@@ -1184,10 +1184,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C35" s="3">
         <v>3303</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C36" s="3">
         <v>1655</v>
@@ -1218,10 +1218,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C37" s="3">
         <v>128</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3">
         <v>1801</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3">
         <v>554</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C40" s="3">
         <v>604</v>
@@ -1286,10 +1286,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C41" s="3">
         <v>1985</v>
@@ -1303,10 +1303,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C42" s="3">
         <v>178</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3">
         <v>753</v>
@@ -1337,10 +1337,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C44" s="3">
         <v>141</v>
@@ -1354,10 +1354,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3">
         <v>1034</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C46" s="3">
         <v>4243</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3">
         <v>394</v>
@@ -1405,10 +1405,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C48" s="3">
         <v>103</v>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C49" s="3">
         <v>1414</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3">
         <v>1066</v>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3">
         <v>253</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3">
         <v>926</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="C53" s="3">
         <v>82</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="55" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>58</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>58</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>58</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>58</v>
@@ -1592,7 +1592,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>58</v>
@@ -1609,7 +1609,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>58</v>
@@ -1626,7 +1626,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>58</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>58</v>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>58</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>58</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>58</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>58</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>58</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>58</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>58</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>58</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>58</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>58</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>58</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>58</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>58</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>58</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>58</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>58</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>58</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>58</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>58</v>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>58</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>58</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>58</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>58</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>58</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>58</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>58</v>
@@ -2136,7 +2136,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>58</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>58</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>58</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>58</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>58</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>58</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>58</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>58</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>58</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>58</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>58</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>58</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>58</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>58</v>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>58</v>
